--- a/data/case1/5/Qlm2_3.xlsx
+++ b/data/case1/5/Qlm2_3.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.24999111125313078</v>
+        <v>-0.2564814264887687</v>
       </c>
       <c r="B1" s="0">
-        <v>0.24938187937452483</v>
+        <v>0.25585163983547687</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.17683601099509083</v>
+        <v>-0.1696260102948921</v>
       </c>
       <c r="B2" s="0">
-        <v>0.17525757148225285</v>
+        <v>0.16808970845788185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.089256732806997974</v>
+        <v>-0.1183716229345837</v>
       </c>
       <c r="B3" s="0">
-        <v>0.088989458817447797</v>
+        <v>0.11791323408973398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.080989458869519027</v>
+        <v>-0.10991323414310195</v>
       </c>
       <c r="B4" s="0">
-        <v>0.080762377774785676</v>
+        <v>0.10950381711870349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.07776237780316464</v>
+        <v>-0.10650381714911017</v>
       </c>
       <c r="B5" s="0">
-        <v>0.077011808544315663</v>
+        <v>0.10511695966863943</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.014945336920535013</v>
+        <v>-0.0058363740055060731</v>
       </c>
       <c r="B6" s="0">
-        <v>0.014852266943298886</v>
+        <v>0.0057873223984028499</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0048522670116795119</v>
+        <v>0.004212677527374975</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0048422209097478408</v>
+        <v>-0.0042157361645083213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0051577790218297892</v>
+        <v>0.014215736090643194</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0051603037415777209</v>
+        <v>-0.014227478771556168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0071603037153815663</v>
+        <v>0.016227478741026591</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0071627400946976394</v>
+        <v>-0.016247667130196319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0091627400695557526</v>
+        <v>-0.020641735042667975</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0091625148195113582</v>
+        <v>0.020633498954394369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.012162514789268997</v>
+        <v>-0.017633498988407936</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.01216414042415348</v>
+        <v>0.017621156495522428</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.015664140391635328</v>
+        <v>-0.014121156532603152</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.015705993769683513</v>
+        <v>0.014038284548063107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.019205993739596749</v>
+        <v>-0.010538284586536939</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.019248764377921113</v>
+        <v>0.010506907041548885</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.027248764325672248</v>
+        <v>-0.0025069071037844282</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.027317443125157048</v>
+        <v>0.0025025469033845837</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.02831744311039941</v>
+        <v>-0.0015025469290428362</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.028407255385089591</v>
+        <v>0.0015016907113523104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.03040725536695188</v>
+        <v>0.00049830925778460156</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.030765387292379209</v>
+        <v>-0.00049883624612956368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040033011284714703</v>
+        <v>0.0024988362154996224</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999751385573</v>
+        <v>-0.0025005020747723705</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.06654586841167287</v>
+        <v>-0.080225629573480006</v>
       </c>
       <c r="B18" s="0">
-        <v>0.066387647574103426</v>
+        <v>0.080036342109181646</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.062387647596830131</v>
+        <v>-0.076036342132487889</v>
       </c>
       <c r="B19" s="0">
-        <v>0.061199059278724821</v>
+        <v>0.07459535059457334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.057199059310182321</v>
+        <v>-0.0080172754519871603</v>
       </c>
       <c r="B20" s="0">
-        <v>0.056847723580302656</v>
+        <v>0.0080058673360632326</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.052847723613755448</v>
+        <v>-0.0040058673694591818</v>
       </c>
       <c r="B21" s="0">
-        <v>0.052278815416175739</v>
+        <v>0.0039999999664335206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.082000838704566092</v>
+        <v>-0.045718085552579169</v>
       </c>
       <c r="B22" s="0">
-        <v>0.081533401708338005</v>
+        <v>0.045502973043899608</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.076533401745784602</v>
+        <v>-0.040502973080034366</v>
       </c>
       <c r="B23" s="0">
-        <v>0.075596514561253159</v>
+        <v>0.040099827058940107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020100958318545636</v>
+        <v>-0.02009982717634351</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999877696517</v>
+        <v>0.019999999881148867</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097253327330005135</v>
+        <v>-0.097280585695875388</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097128501648493071</v>
+        <v>0.097154284921249001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094628501679878241</v>
+        <v>-0.094654284957995216</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094467714954529214</v>
+        <v>0.094491565847704351</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091967714987474913</v>
+        <v>-0.091991565886500926</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091015355589421532</v>
+        <v>0.091027648271450712</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089015355629282311</v>
+        <v>-0.089027648316689856</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088363312637133262</v>
+        <v>0.088367687497694192</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081363312709222591</v>
+        <v>-0.081367687575331971</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081174263017178561</v>
+        <v>0.08117634139900165</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021174263366078971</v>
+        <v>-0.021176341757094708</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021023901927073485</v>
+        <v>0.021024130406112285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014023902004257849</v>
+        <v>-0.014024130489151077</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001290186607562</v>
+        <v>0.014001294666787345</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040012902794881455</v>
+        <v>-0.004001294765844321</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999380953</v>
+        <v>0.0039999999322386515</v>
       </c>
     </row>
   </sheetData>
